--- a/DatosLab3.xlsx
+++ b/DatosLab3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\UMNG\2022-1\Control\Lab Control\CTRL-Lab3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{DD53F6D1-8B05-4A36-938A-371A77740644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F7EBC7-9B7B-4AE2-AEC2-E60D41A8944C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -59,7 +61,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -123,6 +125,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Rpm Vs Vout</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -148,7 +175,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -258,7 +285,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-ES"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -399,6 +426,7 @@
         <c:axId val="580681640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="550"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -450,7 +478,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="580680656"/>
@@ -512,7 +540,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="580681640"/>
@@ -553,7 +581,1601 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Vin vs</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-ES" baseline="0"/>
+              <a:t> Vout</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.21953915135608049"/>
+                  <c:y val="-2.3564814814814816E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-CO"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$A$2:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.1000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.5000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.7000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.9000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.1000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.3000000000000016</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.5000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.9000000000000021</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.1000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$C$2:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1.67</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.82</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.37</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.79</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.82</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.96</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.09</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D6BB-4C7B-ACE3-2929890DCED6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="582653552"/>
+        <c:axId val="582653880"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="582653552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="582653880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="582653880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="582653552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Rpm vs Vin</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$B$2:$B$17</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>619</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>713</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>756</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>786</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>835</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>875</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>930</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>978</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1028</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1068</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1160</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1242</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1282</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.31584405074365707"/>
+                  <c:y val="-2.3564814814814816E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-CO"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$B$2:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>619</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>713</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>756</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>786</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>835</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>875</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>930</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>978</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1028</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1068</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1160</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1242</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1282</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$A$2:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.1000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.5000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.7000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.9000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.1000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.3000000000000016</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.5000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.9000000000000021</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.1000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4ADF-483D-B252-5F2EA253144B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="590628432"/>
+        <c:axId val="590629744"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Hoja1!$B$2:$B$17</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="16"/>
+                      <c:pt idx="0">
+                        <c:v>619</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>666</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>713</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>756</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>786</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>835</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>875</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>930</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>978</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1028</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1068</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>1120</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>1160</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>1200</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>1242</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>1282</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-4ADF-483D-B252-5F2EA253144B}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="590628432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="550"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="590629744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="590629744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="3"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="590628432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Vin vs RPM</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.19404461942257217"/>
+                  <c:y val="-2.3981481481481482E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-CO"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$A$2:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.1000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.5000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.7000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.9000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.1000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.3000000000000016</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.5000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.9000000000000021</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.1000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$B$2:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>619</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>713</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>756</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>786</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>835</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>875</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>930</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>978</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1028</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1068</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1160</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1242</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1282</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-086F-4E1D-87A3-A1D5FFBCDDC4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="582671280"/>
+        <c:axId val="582671936"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="582671280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="582671936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="582671936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="582671280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -604,6 +2226,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1120,20 +2862,1568 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>679450</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>25046</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:colOff>179917</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>94191</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1153,6 +4443,114 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>21167</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228598</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>97366</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7363AD9B-D9C8-4D68-8D5C-A7C534941B47}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>163512</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>52916</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>59796</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D98538F-BEFD-41B2-811D-4DEADE8BE06C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>310091</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>168804</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>148167</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>65088</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB0A2A8C-9F17-41E2-BA29-60FEFD79DBBC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1457,16 +4855,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1477,7 +4875,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>5.5</v>
       </c>
@@ -1497,7 +4895,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
         <f>A2+0.2</f>
         <v>5.7</v>
@@ -1519,9 +4917,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
-        <f t="shared" ref="A4:A21" si="0">A3+0.2</f>
+        <f t="shared" ref="A4:A17" si="0">A3+0.2</f>
         <v>5.9</v>
       </c>
       <c r="B4">
@@ -1534,10 +4932,10 @@
         <v>6</v>
       </c>
       <c r="F4">
-        <v>5</v>
+        <v>2.25</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>6.1000000000000005</v>
@@ -1549,7 +4947,7 @@
         <v>1.64</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>6.3000000000000007</v>
@@ -1561,7 +4959,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6.5000000000000009</v>
@@ -1573,7 +4971,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6.7000000000000011</v>
@@ -1585,7 +4983,7 @@
         <v>2.13</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>6.9000000000000012</v>
@@ -1597,7 +4995,7 @@
         <v>2.37</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>7.1000000000000014</v>
@@ -1609,7 +5007,7 @@
         <v>2.5299999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>7.3000000000000016</v>
@@ -1621,7 +5019,7 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>7.5000000000000018</v>
@@ -1633,7 +5031,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>7.700000000000002</v>
@@ -1645,7 +5043,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14">
         <f>A13+0.2</f>
         <v>7.9000000000000021</v>
@@ -1657,7 +5055,7 @@
         <v>2.82</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>8.1000000000000014</v>
@@ -1669,7 +5067,7 @@
         <v>2.96</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>8.3000000000000007</v>
@@ -1681,7 +5079,7 @@
         <v>3.09</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>8.5</v>
@@ -1691,6 +5089,10 @@
       </c>
       <c r="C17">
         <v>3.1</v>
+      </c>
+      <c r="F17">
+        <f>2.25/6.5</f>
+        <v>0.34615384615384615</v>
       </c>
     </row>
   </sheetData>

--- a/DatosLab3.xlsx
+++ b/DatosLab3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\UMNG\2022-1\Control\Lab Control\CTRL-Lab3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\UMNG\2022-1\local work\CTRL-Lab3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F7EBC7-9B7B-4AE2-AEC2-E60D41A8944C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0138328E-6755-4111-9FAD-62DEBC73AC66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -79,7 +79,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -87,12 +87,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -175,7 +191,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -256,8 +272,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.43410389326334209"/>
-                  <c:y val="-2.8194444444444466E-2"/>
+                  <c:x val="-0.38023880014511546"/>
+                  <c:y val="4.2238258571822762E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -285,7 +301,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-CO"/>
+                  <a:endParaRPr lang="es-MX"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -478,7 +494,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="580680656"/>
@@ -540,7 +556,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="580681640"/>
@@ -581,7 +597,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -662,7 +678,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -758,7 +774,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-CO"/>
+                  <a:endParaRPr lang="es-MX"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -951,7 +967,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="582653880"/>
@@ -1013,7 +1029,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="582653552"/>
@@ -1054,7 +1070,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1130,7 +1146,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1282,7 +1298,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-CO"/>
+                  <a:endParaRPr lang="es-MX"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1576,7 +1592,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="590629744"/>
@@ -1639,7 +1655,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="590628432"/>
@@ -1687,7 +1703,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1769,7 +1785,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1879,7 +1895,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-CO"/>
+                  <a:endParaRPr lang="es-MX"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2072,7 +2088,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="582671936"/>
@@ -2134,7 +2150,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="582671280"/>
@@ -2175,7 +2191,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4858,31 +4874,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>5.5</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>619</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>1.67</v>
       </c>
       <c r="E2" t="s">
@@ -4895,15 +4911,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <f>A2+0.2</f>
         <v>5.7</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>666</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>1.82</v>
       </c>
       <c r="E3" t="s">
@@ -4917,15 +4933,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <f t="shared" ref="A4:A17" si="0">A3+0.2</f>
         <v>5.9</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>713</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>1.88</v>
       </c>
       <c r="E4" t="s">
@@ -4935,159 +4951,159 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>6.1000000000000005</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>756</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>1.64</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>6.3000000000000007</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>786</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>1.9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>6.5000000000000009</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>835</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>6.7000000000000011</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>875</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>2.13</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>6.9000000000000012</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>930</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>2.37</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>7.1000000000000014</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>978</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>2.5299999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>7.3000000000000016</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>1028</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>2.79</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>7.5000000000000018</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>1068</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>2.7</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>7.700000000000002</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>1120</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>2.8</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <f>A13+0.2</f>
         <v>7.9000000000000021</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>1160</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>2.82</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>8.1000000000000014</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <v>1200</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>2.96</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>8.3000000000000007</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <v>1242</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>3.09</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>8.5</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <v>1282</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
         <v>3.1</v>
       </c>
       <c r="F17">
@@ -5097,6 +5113,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>